--- a/Examples/BarometryTests/Plag2Pyx/Plag2Pyx_data.xlsx
+++ b/Examples/BarometryTests/Plag2Pyx/Plag2Pyx_data.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2022\BarometryReview\rhyoliteMELTS method\SubProcMethods\ParallelProcessing\Python Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\2022\GitHub\pyMELTScalc\Examples\BarometryTests\Plag2Pyx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFC7E8-250E-4C8C-B24F-E687778181D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3120EE-DA89-4C23-A1BE-055CC0C120AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WithNNO" sheetId="1" r:id="rId1"/>
     <sheet name="noNNO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="436">
   <si>
     <t>Phase</t>
   </si>
@@ -1284,6 +1297,51 @@
   </si>
   <si>
     <t>Sisson1673</t>
+  </si>
+  <si>
+    <t>SiO2_Liq</t>
+  </si>
+  <si>
+    <t>TiO2_Liq</t>
+  </si>
+  <si>
+    <t>Al2O3_Liq</t>
+  </si>
+  <si>
+    <t>FeOt_Liq</t>
+  </si>
+  <si>
+    <t>MnO_Liq</t>
+  </si>
+  <si>
+    <t>MgO_Liq</t>
+  </si>
+  <si>
+    <t>CaO_Liq</t>
+  </si>
+  <si>
+    <t>Na2O_Liq</t>
+  </si>
+  <si>
+    <t>K2O_Liq</t>
+  </si>
+  <si>
+    <t>Cr2O3_Liq</t>
+  </si>
+  <si>
+    <t>P2O5_Liq</t>
+  </si>
+  <si>
+    <t>H2O_Liq</t>
+  </si>
+  <si>
+    <t>Sample_ID_Liq</t>
+  </si>
+  <si>
+    <t>P_calc</t>
+  </si>
+  <si>
+    <t>H2O_calc</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1338,13 +1396,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1685,23 +1757,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,55 +1785,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1771,55 +1853,64 @@
         <v>34</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>51.6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.06</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9.89</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.44</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>1.6</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.131100737626056</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-7.2760659943698087</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1403.15</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>3026</v>
+      </c>
+      <c r="V2">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1830,55 +1921,64 @@
         <v>35</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>54.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.87</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8.48</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.12</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.42</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9.75</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.23</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.41</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>2.7</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.13396497105196131</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-8.6613712995666869</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1373.15</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>3250</v>
+      </c>
+      <c r="V3">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1889,35 +1989,35 @@
         <v>36</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>52.1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.54</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15.7</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13.6</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.21</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.14</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.01</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.99</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.7</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -1925,19 +2025,28 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.2185480093676819</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-7.3443722635169539</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1473.15</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>663</v>
+      </c>
+      <c r="V4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1948,55 +2057,64 @@
         <v>37</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>51.2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.74</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18.2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9.7200000000000006</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.18</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.97</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10.6</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.9</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.34</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>1.8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.2185480093676819</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-7.3443722635169539</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1473.15</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>2482</v>
+      </c>
+      <c r="V5">
+        <v>1.0222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2007,55 +2125,64 @@
         <v>38</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>52</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.79</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>18.399999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9.51</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.13</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6.62</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10.199999999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2.04</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.36</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.2294508783807867</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-8.1777158536150782</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1403.15</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>2293</v>
+      </c>
+      <c r="V6">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2066,55 +2193,64 @@
         <v>39</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>55.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.83</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>17.600000000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8.1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.27</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9.42</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.99</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.41</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>2.7</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.23276868018653121</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-8.431306799696344</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1383.15</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>509</v>
+      </c>
+      <c r="V7">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2125,55 +2261,64 @@
         <v>40</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>53.4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.96</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>18.7</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.94</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.17</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.95</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9.14</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2.29</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.49</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.23792927613346571</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-8.8257488083361029</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1353.15</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>1934</v>
+      </c>
+      <c r="V8">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2184,55 +2329,64 @@
         <v>41</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
         <v>53.6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.83</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>19.8</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9.08</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.17</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9.14</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.31</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.42</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.94149870607208364</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-8.3985725537261384</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1333.15</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>6696</v>
+      </c>
+      <c r="V9">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2243,55 +2397,58 @@
         <v>42</v>
       </c>
       <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>61.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.73</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>15.04</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.06</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5.61</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.7</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.68</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>13.45729628278437</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.0794863483356161</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-10.28112205460666</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1203.1500000000001</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.08</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2302,55 +2459,58 @@
         <v>43</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>61.473470088850121</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.67101443456677345</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>19.129961248490861</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8.1757386223955226</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.14222545828019159</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.265756696513844</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7.4935333580952399</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.76290399853055091</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.67368244121051113</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.4398249172900581E-3</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.20120402144479579</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.19601414993819691</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-11.694465328389381</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1173.1500000000001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2361,55 +2521,58 @@
         <v>44</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>57.53</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>19.239999999999998</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6.43</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.16</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.99</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>7.74</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4.3899999999999997</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.26</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>0.26</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5.21</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3.7413533362133289</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-6.48</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2420,55 +2583,58 @@
         <v>45</v>
       </c>
       <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>63.49</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.86</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>17.21</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.24</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.82</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>6.2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4.78</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.23</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.15</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>5.25</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3.7318010873564149</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-7.29</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2479,55 +2645,64 @@
         <v>46</v>
       </c>
       <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
         <v>56.5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.19</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>19.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8.43</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.15</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.61</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>7.36</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.06</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.53</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-0.71859879832218709</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-10.199999999999999</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1323.15</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4.0019999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>4592</v>
+      </c>
+      <c r="V14">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2538,55 +2713,64 @@
         <v>47</v>
       </c>
       <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
         <v>54.6</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.22</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>17.7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9.26</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.18</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.59</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.81</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.9</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.67</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.06</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>3.5</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.7294802768912381E-3</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-8.9</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1365.15</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4.0149999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>5250</v>
+      </c>
+      <c r="V15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2597,55 +2781,64 @@
         <v>48</v>
       </c>
       <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
         <v>52.6</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>16.600000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9.6</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6.54</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2.72</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.49</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.04</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>1.6</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-0.90385043587858505</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-9</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1428.15</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>4.1470000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>1894</v>
+      </c>
+      <c r="V16">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2656,55 +2849,58 @@
         <v>49</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>69.599999999999994</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.61</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.98</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.13</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.72</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.04</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.7</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.98</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3.8514855634248953E-2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-11.495756610652469</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1193.1500000000001</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2715,55 +2911,58 @@
         <v>50</v>
       </c>
       <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
         <v>50.6</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.34</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19.7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9.0341500000000003</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.16</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.41</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>8.25</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3.99</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.69</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.511909469237505</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-6.3497767493788757</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1368.15</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2774,55 +2973,58 @@
         <v>51</v>
       </c>
       <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
         <v>52.2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.53</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>19.7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>8.303128000000001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4.57</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7.34</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4.47</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.9</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>3</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3.2877820069705179</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-6.1936191947072938</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1323.15</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2833,55 +3035,64 @@
         <v>52</v>
       </c>
       <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
         <v>61.4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.97</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>18.100000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4.5494599999999998</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.13</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>5.39</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4.41</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.48</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>4</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3.9763863341858419</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-6.6371745359018854</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>9526</v>
+      </c>
+      <c r="V20">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2892,55 +3103,58 @@
         <v>53</v>
       </c>
       <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
         <v>58.5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>18.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5.6393399999999998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.16</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.08</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6.09</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4.67</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1.33</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>4</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4.9786273453662861</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-5.2427259908470436</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2951,55 +3165,61 @@
         <v>54</v>
       </c>
       <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>50.88</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.3</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>17.149999999999999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8.34</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.12</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5.75</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>9.1199999999999992</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2.86</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.35</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.01</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>2.6</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.30599341383095519</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-6.919177726773774</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1503.15</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3010,55 +3230,64 @@
         <v>55</v>
       </c>
       <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
         <v>49.41</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.64</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>17.760000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.57</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.18</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5.16</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7.88</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3.63</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.62</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>3.2</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.32780101913551718</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-8.0793657128603478</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1403.15</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>5500</v>
+      </c>
+      <c r="V23">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3069,55 +3298,58 @@
         <v>56</v>
       </c>
       <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>53.97</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.42</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>16.05</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.1</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.12</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.98</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>7.27</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3.54</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.75</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.02</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>7.5</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.33991353508480238</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-8.7237645493847662</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1353.15</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3128,55 +3360,64 @@
         <v>57</v>
       </c>
       <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
         <v>55.86</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>15.75</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4.7</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.1</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5.72</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3.89</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.89</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>10</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.35295553082914571</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-9.4176127076698748</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1303.1500000000001</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>1802</v>
+      </c>
+      <c r="V25">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3187,55 +3428,58 @@
         <v>58</v>
       </c>
       <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
         <v>66.08</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>13.08</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.26</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.02</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.19</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.68</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.99</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>13.8</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.60287986490201462</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-9.6184734713113151</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3246,55 +3490,58 @@
         <v>59</v>
       </c>
       <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
         <v>59.24</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.1</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>14.81</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>9.74</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.17</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6.09</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2.64</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.74</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>1.6</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.8953362706186481</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-6.9</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1373.15</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>7.04</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3305,55 +3552,58 @@
         <v>60</v>
       </c>
       <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
         <v>56.44</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.41</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>16.64</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3.93</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>7.55</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3.2</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.44</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>2.5</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2.4953362706186479</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-6.3</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1373.15</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>7.04</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3364,55 +3614,58 @@
         <v>61</v>
       </c>
       <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
         <v>56.55</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>19.82</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6.85</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.12</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3.53</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7.99</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3.11</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.04</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2.881401201677813</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-6.6</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1323.15</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>7.03</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3423,55 +3676,58 @@
         <v>62</v>
       </c>
       <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
         <v>61.8</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.44</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>15.2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7.39</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.16</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.82</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5.91</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3.22</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.0699999999999998</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>0.7</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.42488367665536941</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1313.15</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.02</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3482,55 +3738,58 @@
         <v>63</v>
       </c>
       <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
         <v>59.91</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.23</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>16.350000000000001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7.21</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.18</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.32</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>6.9</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>3.35</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.54</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>1.5</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.5248836766553691</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-8.1</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1313.15</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.02</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3541,55 +3800,58 @@
         <v>64</v>
       </c>
       <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
         <v>66.59</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>15.66</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>4.24</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.13</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.98</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4.45</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3.54</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2.3199999999999998</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>1.59</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.6213533362133301</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-8.6</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.02</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3600,55 +3862,58 @@
         <v>65</v>
       </c>
       <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
         <v>64.14</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>16.600000000000001</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4.3</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.09</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.65</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>5.53</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3.8</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1.73</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>2.36</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.1213533362133301</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-8.1</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3659,55 +3924,58 @@
         <v>66</v>
       </c>
       <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
         <v>61.94</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>17.57</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4.74</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.16</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3.23</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6.26</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>3.56</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1.42</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>2.86</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2.4213533362133299</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-7.8</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1.02</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3718,55 +3986,58 @@
         <v>67</v>
       </c>
       <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
         <v>65.31</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.05</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>17</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.71</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.09</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.31</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>3.74</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.81</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>2.9</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2.413560870087728</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>1.02</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3777,55 +4048,58 @@
         <v>68</v>
       </c>
       <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
         <v>72.410481980999307</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.4689943720027599</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>14.41843487523859</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.0752174102215211</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>6.958844560605125E-2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.63998879395299024</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2.0162789073365479</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4.5683769274954038</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3.2196562861058289</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>3.9</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-0.74568693358294702</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-12.6</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1175.1500000000001</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3836,55 +4110,58 @@
         <v>69</v>
       </c>
       <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
         <v>73.436555492151825</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.4631163278051913</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>13.99754992860815</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.961491397165481</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4.7477888358257628E-2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.42873059883574</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1.5586441479260009</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4.5152576741655848</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>3.4943274377905582</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>3.5</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-0.88568693358294759</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-12.74</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1175.1500000000001</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3895,55 +4172,58 @@
         <v>70</v>
       </c>
       <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
         <v>73.048058315681317</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.30511848827788612</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>14.30592902656792</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2.1469572686941611</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.14484154120014939</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.43308877189090528</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1.8454284096901321</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4.5641418291243117</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>3.125849171675096</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>6.3</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>-0.55349908738815046</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>-13.39</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2.004</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3954,55 +4234,58 @@
         <v>71</v>
       </c>
       <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
         <v>69.940829450006305</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.43810348313137593</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>15.631488793910799</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.3803542947816698</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.1002854747366487</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.5826885036189019</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2.2921617721650271</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4.6103045097089863</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>2.7938609222025712</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>6.1</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>-0.63568693358294759</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>-12.49</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>1175.1500000000001</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -4013,55 +4296,58 @@
         <v>72</v>
       </c>
       <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
         <v>69.43202342126375</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.66354069026392404</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>15.372382556465331</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.2890959389210881</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.11947682071716489</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.60997360328949268</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2.3941991920113228</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>5.1885325878826114</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>2.7478023078712148</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>2.6</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>-0.83761912873142563</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-12.71</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>1174.1500000000001</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>4.1349999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4072,55 +4358,58 @@
         <v>73</v>
       </c>
       <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
         <v>66.239999999999995</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>12.62</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>7.92</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.15</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1.17</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>3.49</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>4.91</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1.55</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>1.9</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>2.616123431684763</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>-7.154444806814257</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>1303.1500000000001</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -4131,55 +4420,58 @@
         <v>74</v>
       </c>
       <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
         <v>70.08</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.69</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>12.82</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5.69</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.13</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.66</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.4900000000000002</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4.75</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1.85</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>2</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2.6174256818271808</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>-7.758947670506271</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>1263.1500000000001</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -4190,55 +4482,58 @@
         <v>75</v>
       </c>
       <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
         <v>67.709999999999994</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.07</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>12.82</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>7.03</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.13</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.76</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.08</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>4.8</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1.72</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>1.9</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>0.41742568182718109</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>-9.9589476705062712</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>1263.1500000000001</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4249,55 +4544,58 @@
         <v>76</v>
       </c>
       <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
         <v>70.77</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.88</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>11.8</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5.94</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.1</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1.73</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4.63</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2.79</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
         <v>1</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>0.41742568182718109</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>-9.9589476705062712</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>1263.1500000000001</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -4308,55 +4606,58 @@
         <v>77</v>
       </c>
       <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
         <v>66.52</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.91</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>13.73</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>7.19</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.87</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>3.38</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5.2</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1.44</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>2.1</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>0.41881310550627582</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>-10.60298798185014</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -4367,55 +4668,58 @@
         <v>78</v>
       </c>
       <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
         <v>69.16</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.81</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>12.62</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>6.53</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.12</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>2.63</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4.96</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1.81</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>1.3</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>0.41881310550627582</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>-10.60298798185014</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4426,55 +4730,58 @@
         <v>79</v>
       </c>
       <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
         <v>70.11</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.81</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>12.22</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>6.24</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.11</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.48</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>4.63</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1.96</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>0.3</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0.41881310550627582</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>-10.60298798185014</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4485,56 +4792,60 @@
         <v>80</v>
       </c>
       <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
         <v>73.63</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>11.64</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.08</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.59</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>4.8</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>3.39</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>1.6</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>0.42029434137683808</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>-11.29057579343278</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>1183.1500000000001</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4544,9 +4855,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +4919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>21</v>
       </c>
@@ -4661,7 +4975,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>86</v>
       </c>
@@ -4717,7 +5031,7 @@
         <v>1.0689999908209</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>87</v>
       </c>
@@ -4773,7 +5087,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>90</v>
       </c>
@@ -4829,7 +5143,7 @@
         <v>0.54800000041723007</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>91</v>
       </c>
@@ -4885,7 +5199,7 @@
         <v>0.59300001710652994</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>96</v>
       </c>
@@ -4941,7 +5255,7 @@
         <v>1.1720000207424</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>193</v>
       </c>
@@ -4997,7 +5311,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>195</v>
       </c>
@@ -5053,7 +5367,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>198</v>
       </c>
@@ -5109,7 +5423,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>199</v>
       </c>
@@ -5165,7 +5479,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -5221,7 +5535,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>205</v>
       </c>
@@ -5277,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>206</v>
       </c>
@@ -5333,7 +5647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>208</v>
       </c>
@@ -5389,7 +5703,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>209</v>
       </c>
@@ -5445,7 +5759,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>210</v>
       </c>
@@ -5501,7 +5815,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>212</v>
       </c>
@@ -5557,7 +5871,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>213</v>
       </c>
@@ -5613,7 +5927,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>258</v>
       </c>
@@ -5669,7 +5983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>259</v>
       </c>
@@ -5725,7 +6039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -5781,7 +6095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -5837,7 +6151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>349</v>
       </c>
@@ -5893,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>353</v>
       </c>
@@ -5949,7 +6263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>359</v>
       </c>
@@ -6005,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>362</v>
       </c>
@@ -6061,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>372</v>
       </c>
@@ -6117,7 +6431,7 @@
         <v>2.1299999952316</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>375</v>
       </c>
@@ -6173,7 +6487,7 @@
         <v>2.1299999952316</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>377</v>
       </c>
@@ -6229,7 +6543,7 @@
         <v>1.9799999892711999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>382</v>
       </c>
@@ -6285,7 +6599,7 @@
         <v>2.2050000727176999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>385</v>
       </c>
@@ -6341,7 +6655,7 @@
         <v>2.1119999885559002</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>441</v>
       </c>
@@ -6397,7 +6711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>442</v>
       </c>
@@ -6453,7 +6767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>462</v>
       </c>
@@ -6509,7 +6823,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>472</v>
       </c>
@@ -6565,7 +6879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>518</v>
       </c>
@@ -6621,7 +6935,7 @@
         <v>4.2699998617172001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>521</v>
       </c>
@@ -6677,7 +6991,7 @@
         <v>3.9489999413489998</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>525</v>
       </c>
@@ -6733,7 +7047,7 @@
         <v>4.0479999780654996</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>527</v>
       </c>
@@ -6789,7 +7103,7 @@
         <v>4.0599998831748998</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>537</v>
       </c>
@@ -6845,7 +7159,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>538</v>
       </c>
@@ -6901,7 +7215,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>539</v>
       </c>
@@ -6957,7 +7271,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>544</v>
       </c>
@@ -7013,7 +7327,7 @@
         <v>1.5000000596045999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>590</v>
       </c>
@@ -7069,7 +7383,7 @@
         <v>2.0299999415875001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>635</v>
       </c>
@@ -7125,7 +7439,7 @@
         <v>5.0199997425078999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>636</v>
       </c>
@@ -7181,7 +7495,7 @@
         <v>5.0199997425078999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>639</v>
       </c>
@@ -7237,7 +7551,7 @@
         <v>5.0169998407363998</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>646</v>
       </c>
@@ -7293,7 +7607,7 @@
         <v>0.44100001454352999</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>648</v>
       </c>
@@ -7349,7 +7663,7 @@
         <v>1.0080000013113</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>649</v>
       </c>
@@ -7405,7 +7719,7 @@
         <v>0.71000002324580991</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>651</v>
       </c>
@@ -7461,7 +7775,7 @@
         <v>1.4550000429153001</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>652</v>
       </c>
@@ -7517,7 +7831,7 @@
         <v>1.4550000429153001</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>653</v>
       </c>
@@ -7573,7 +7887,7 @@
         <v>1.0100000351667</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>687</v>
       </c>
@@ -7629,7 +7943,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>955</v>
       </c>
@@ -7685,7 +7999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>956</v>
       </c>
@@ -7741,7 +8055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1154</v>
       </c>
@@ -7797,7 +8111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1463</v>
       </c>
@@ -7853,7 +8167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1464</v>
       </c>
@@ -7909,7 +8223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1465</v>
       </c>
@@ -7965,7 +8279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>1466</v>
       </c>
@@ -8021,7 +8335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1473</v>
       </c>
@@ -8077,7 +8391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1474</v>
       </c>
@@ -8133,7 +8447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1475</v>
       </c>
@@ -8189,7 +8503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1476</v>
       </c>
@@ -8245,7 +8559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1477</v>
       </c>
@@ -8301,7 +8615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1478</v>
       </c>
@@ -8357,7 +8671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1479</v>
       </c>
@@ -8413,7 +8727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1480</v>
       </c>
@@ -8469,7 +8783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1503</v>
       </c>
@@ -8525,7 +8839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1504</v>
       </c>
@@ -8581,7 +8895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>1572</v>
       </c>
@@ -8637,7 +8951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1573</v>
       </c>
@@ -8693,7 +9007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1574</v>
       </c>
@@ -8749,7 +9063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1575</v>
       </c>
@@ -8805,7 +9119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1576</v>
       </c>
@@ -8861,7 +9175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1577</v>
       </c>
@@ -8917,7 +9231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1578</v>
       </c>
@@ -8973,7 +9287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1579</v>
       </c>
@@ -9029,7 +9343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1580</v>
       </c>
@@ -9085,7 +9399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1581</v>
       </c>
@@ -9141,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1582</v>
       </c>
@@ -9197,7 +9511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1583</v>
       </c>
@@ -9253,7 +9567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1584</v>
       </c>
@@ -9309,7 +9623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1585</v>
       </c>
@@ -9365,7 +9679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1586</v>
       </c>
@@ -9421,7 +9735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1587</v>
       </c>
@@ -9477,7 +9791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1588</v>
       </c>
@@ -9533,7 +9847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1589</v>
       </c>
@@ -9589,7 +9903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1590</v>
       </c>
@@ -9645,7 +9959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1591</v>
       </c>
@@ -9701,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1592</v>
       </c>
@@ -9757,7 +10071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1593</v>
       </c>
@@ -9813,7 +10127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1594</v>
       </c>
@@ -9869,7 +10183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1595</v>
       </c>
@@ -9925,7 +10239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1596</v>
       </c>
@@ -9981,7 +10295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1597</v>
       </c>
@@ -10037,7 +10351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1598</v>
       </c>
@@ -10093,7 +10407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1599</v>
       </c>
@@ -10149,7 +10463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1600</v>
       </c>
@@ -10205,7 +10519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1601</v>
       </c>
@@ -10261,7 +10575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1602</v>
       </c>
@@ -10317,7 +10631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>26</v>
       </c>
@@ -10373,7 +10687,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>27</v>
       </c>
@@ -10429,7 +10743,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>28</v>
       </c>
@@ -10485,7 +10799,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>29</v>
       </c>
@@ -10541,7 +10855,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>30</v>
       </c>
@@ -10597,7 +10911,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>31</v>
       </c>
@@ -10653,7 +10967,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>32</v>
       </c>
@@ -10709,7 +11023,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>33</v>
       </c>
@@ -10765,7 +11079,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>34</v>
       </c>
@@ -10821,7 +11135,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>35</v>
       </c>
@@ -10877,7 +11191,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>53</v>
       </c>
@@ -10933,7 +11247,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>54</v>
       </c>
@@ -10989,7 +11303,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>59</v>
       </c>
@@ -11045,7 +11359,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>60</v>
       </c>
@@ -11101,7 +11415,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>62</v>
       </c>
@@ -11157,7 +11471,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>63</v>
       </c>
@@ -11213,7 +11527,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>64</v>
       </c>
@@ -11269,7 +11583,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>65</v>
       </c>
@@ -11325,7 +11639,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>169</v>
       </c>
@@ -11381,7 +11695,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>170</v>
       </c>
@@ -11437,7 +11751,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>171</v>
       </c>
@@ -11493,7 +11807,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>177</v>
       </c>
@@ -11549,7 +11863,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>178</v>
       </c>
@@ -11605,7 +11919,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>184</v>
       </c>
@@ -11661,7 +11975,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>187</v>
       </c>
@@ -11717,7 +12031,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>189</v>
       </c>
@@ -11773,7 +12087,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>192</v>
       </c>
@@ -11829,7 +12143,7 @@
         <v>8.0000001192093002</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>194</v>
       </c>
@@ -11885,7 +12199,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>196</v>
       </c>
@@ -11941,7 +12255,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>197</v>
       </c>
@@ -11997,7 +12311,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>201</v>
       </c>
@@ -12053,7 +12367,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>202</v>
       </c>
@@ -12109,7 +12423,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -12165,7 +12479,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -12221,7 +12535,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>207</v>
       </c>
@@ -12277,7 +12591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>214</v>
       </c>
@@ -12333,7 +12647,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>215</v>
       </c>
@@ -12389,7 +12703,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>216</v>
       </c>
@@ -12445,7 +12759,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>217</v>
       </c>
@@ -12501,7 +12815,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>227</v>
       </c>
@@ -12557,7 +12871,7 @@
         <v>0.54000001400708997</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>237</v>
       </c>
@@ -12613,7 +12927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>238</v>
       </c>
@@ -12669,7 +12983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>239</v>
       </c>
@@ -12725,7 +13039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>243</v>
       </c>
@@ -12781,7 +13095,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>244</v>
       </c>
@@ -12837,7 +13151,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>245</v>
       </c>
@@ -12893,7 +13207,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>246</v>
       </c>
@@ -12949,7 +13263,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>247</v>
       </c>
@@ -13005,7 +13319,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>248</v>
       </c>
@@ -13061,7 +13375,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>249</v>
       </c>
@@ -13117,7 +13431,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>250</v>
       </c>
@@ -13173,7 +13487,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>255</v>
       </c>
@@ -13229,7 +13543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>256</v>
       </c>
@@ -13285,7 +13599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>271</v>
       </c>
@@ -13341,7 +13655,7 @@
         <v>11.000000238419</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>272</v>
       </c>
@@ -13397,7 +13711,7 @@
         <v>11.000000238419</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>275</v>
       </c>
@@ -13453,7 +13767,7 @@
         <v>12.000000476837</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>287</v>
       </c>
@@ -13509,7 +13823,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>288</v>
       </c>
@@ -13565,7 +13879,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>289</v>
       </c>
@@ -13621,7 +13935,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>290</v>
       </c>
@@ -13677,7 +13991,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>346</v>
       </c>
@@ -13733,7 +14047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>357</v>
       </c>
@@ -13789,7 +14103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>363</v>
       </c>
@@ -13845,7 +14159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>388</v>
       </c>
@@ -13901,7 +14215,7 @@
         <v>2.2650000452994998</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>400</v>
       </c>
@@ -13957,7 +14271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>478</v>
       </c>
@@ -14013,7 +14327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>479</v>
       </c>
@@ -14069,7 +14383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>480</v>
       </c>
@@ -14125,7 +14439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>517</v>
       </c>
@@ -14181,7 +14495,7 @@
         <v>4.2699998617172001</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>520</v>
       </c>
@@ -14237,7 +14551,7 @@
         <v>3.9489999413489998</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>524</v>
       </c>
@@ -14293,7 +14607,7 @@
         <v>4.0479999780654996</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>529</v>
       </c>
@@ -14349,7 +14663,7 @@
         <v>4.0580001473427014</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>534</v>
       </c>
@@ -14405,7 +14719,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>535</v>
       </c>
@@ -14461,7 +14775,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>536</v>
       </c>
@@ -14517,7 +14831,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>541</v>
       </c>
@@ -14573,7 +14887,7 @@
         <v>1.5000000596045999</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>542</v>
       </c>
@@ -14629,7 +14943,7 @@
         <v>1.5000000596045999</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>543</v>
       </c>
@@ -14685,7 +14999,7 @@
         <v>1.5000000596045999</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>546</v>
       </c>
@@ -14741,7 +15055,7 @@
         <v>2.0000000298023002</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>555</v>
       </c>
@@ -14797,7 +15111,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>556</v>
       </c>
@@ -14853,7 +15167,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>588</v>
       </c>
@@ -14909,7 +15223,7 @@
         <v>2.0350000262260002</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>589</v>
       </c>
@@ -14965,7 +15279,7 @@
         <v>2.0299999415875001</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>593</v>
       </c>
@@ -15021,7 +15335,7 @@
         <v>2.0309999585152001</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>594</v>
       </c>
@@ -15077,7 +15391,7 @@
         <v>2.0309999585152001</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>595</v>
       </c>
@@ -15133,7 +15447,7 @@
         <v>2.0309999585152001</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>601</v>
       </c>
@@ -15189,7 +15503,7 @@
         <v>2.0270000398159</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>604</v>
       </c>
@@ -15245,7 +15559,7 @@
         <v>2.0190000534057999</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>605</v>
       </c>
@@ -15301,7 +15615,7 @@
         <v>2.0190000534057999</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>612</v>
       </c>
@@ -15357,7 +15671,7 @@
         <v>2.018000036478</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>618</v>
       </c>
@@ -15413,7 +15727,7 @@
         <v>1.0220000147818999</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>619</v>
       </c>
@@ -15469,7 +15783,7 @@
         <v>1.0220000147818999</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>622</v>
       </c>
@@ -15525,7 +15839,7 @@
         <v>1.0149999707937001</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>623</v>
       </c>
@@ -15581,7 +15895,7 @@
         <v>1.0149999707937001</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>624</v>
       </c>
@@ -15637,7 +15951,7 @@
         <v>1.0379999876021999</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>625</v>
       </c>
@@ -15693,7 +16007,7 @@
         <v>1.0379999876021999</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>626</v>
       </c>
@@ -15749,7 +16063,7 @@
         <v>1.0379999876021999</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>629</v>
       </c>
@@ -15805,7 +16119,7 @@
         <v>1.0400000214577001</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>630</v>
       </c>
@@ -15861,7 +16175,7 @@
         <v>1.0400000214577001</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>633</v>
       </c>
@@ -15917,7 +16231,7 @@
         <v>5.0099998712539993</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>641</v>
       </c>
@@ -15973,7 +16287,7 @@
         <v>5.0150001049042006</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>665</v>
       </c>
@@ -16029,7 +16343,7 @@
         <v>0.60699999332428001</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>667</v>
       </c>
@@ -16085,7 +16399,7 @@
         <v>0.98899997770785997</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>668</v>
       </c>
@@ -16141,7 +16455,7 @@
         <v>2.0399999618529998</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>671</v>
       </c>
@@ -16197,7 +16511,7 @@
         <v>1.6130000352859</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>811</v>
       </c>
@@ -16253,7 +16567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>814</v>
       </c>
@@ -16309,7 +16623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>815</v>
       </c>
@@ -16365,7 +16679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>816</v>
       </c>
@@ -16421,7 +16735,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>817</v>
       </c>
@@ -16477,7 +16791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>818</v>
       </c>
@@ -16533,7 +16847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>819</v>
       </c>
@@ -16589,7 +16903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>820</v>
       </c>
@@ -16645,7 +16959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>821</v>
       </c>
@@ -16701,7 +17015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>826</v>
       </c>
@@ -16757,7 +17071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>827</v>
       </c>
@@ -16813,7 +17127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>833</v>
       </c>
@@ -16869,7 +17183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>1156</v>
       </c>
@@ -16925,7 +17239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>1443</v>
       </c>
@@ -16981,7 +17295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>1444</v>
       </c>
@@ -17037,7 +17351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>1445</v>
       </c>
@@ -17093,7 +17407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>1446</v>
       </c>
@@ -17149,7 +17463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>1513</v>
       </c>
@@ -17205,7 +17519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>1514</v>
       </c>
@@ -17261,7 +17575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>1515</v>
       </c>
@@ -17317,7 +17631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>1516</v>
       </c>
@@ -17373,7 +17687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>1635</v>
       </c>
@@ -17429,7 +17743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>1636</v>
       </c>
@@ -17485,7 +17799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1638</v>
       </c>
@@ -17541,7 +17855,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1639</v>
       </c>
@@ -17597,7 +17911,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>1640</v>
       </c>
@@ -17653,7 +17967,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>1642</v>
       </c>
@@ -17709,7 +18023,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>1643</v>
       </c>
@@ -17765,7 +18079,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>1646</v>
       </c>
@@ -17821,7 +18135,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>1647</v>
       </c>
@@ -17877,7 +18191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>1648</v>
       </c>
@@ -17933,7 +18247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1651</v>
       </c>
@@ -17989,7 +18303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>1652</v>
       </c>
@@ -18045,7 +18359,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>1653</v>
       </c>
@@ -18101,7 +18415,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>1655</v>
       </c>
@@ -18157,7 +18471,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1656</v>
       </c>
@@ -18213,7 +18527,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>1658</v>
       </c>
@@ -18269,7 +18583,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>1659</v>
       </c>
@@ -18325,7 +18639,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>1661</v>
       </c>
@@ -18381,7 +18695,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>1665</v>
       </c>
@@ -18437,7 +18751,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>1666</v>
       </c>
@@ -18493,7 +18807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>1669</v>
       </c>
@@ -18549,7 +18863,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>1670</v>
       </c>
@@ -18605,7 +18919,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>1673</v>
       </c>
@@ -18661,7 +18975,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>1674</v>
       </c>
@@ -18717,7 +19031,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>1677</v>
       </c>
@@ -18773,7 +19087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>1678</v>
       </c>
@@ -18829,7 +19143,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>1679</v>
       </c>
@@ -18885,7 +19199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>1680</v>
       </c>
@@ -18941,7 +19255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>1682</v>
       </c>
@@ -18997,7 +19311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>1684</v>
       </c>
@@ -19053,7 +19367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>1685</v>
       </c>
@@ -19109,7 +19423,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>1686</v>
       </c>
@@ -19165,7 +19479,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>1687</v>
       </c>
@@ -19221,7 +19535,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1688</v>
       </c>
@@ -19277,7 +19591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1689</v>
       </c>
@@ -19333,7 +19647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1690</v>
       </c>
@@ -19389,7 +19703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>1691</v>
       </c>
@@ -19445,7 +19759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>1693</v>
       </c>
@@ -19501,7 +19815,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1694</v>
       </c>
@@ -19557,7 +19871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>1695</v>
       </c>
@@ -19613,7 +19927,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>1696</v>
       </c>
@@ -19669,7 +19983,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>1697</v>
       </c>
@@ -19725,7 +20039,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>1699</v>
       </c>
@@ -19781,7 +20095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1703</v>
       </c>
@@ -19837,7 +20151,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1704</v>
       </c>
@@ -19893,7 +20207,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>1705</v>
       </c>
@@ -19949,7 +20263,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>80</v>
       </c>
@@ -20005,7 +20319,7 @@
         <v>1.410000026226</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>81</v>
       </c>
@@ -20061,7 +20375,7 @@
         <v>1.3240000605583</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>97</v>
       </c>
@@ -20117,7 +20431,7 @@
         <v>1.0069999843835999</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>297</v>
       </c>
@@ -20173,7 +20487,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>298</v>
       </c>
@@ -20229,7 +20543,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>321</v>
       </c>
@@ -20285,7 +20599,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>322</v>
       </c>
@@ -20341,7 +20655,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>323</v>
       </c>
@@ -20397,7 +20711,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>324</v>
       </c>
@@ -20453,7 +20767,7 @@
         <v>1.0132500028703E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>347</v>
       </c>
@@ -20509,7 +20823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>356</v>
       </c>
@@ -20565,7 +20879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>370</v>
       </c>
@@ -20621,7 +20935,7 @@
         <v>2.0280000567436001</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>371</v>
       </c>
@@ -20677,7 +20991,7 @@
         <v>2.1299999952316</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>373</v>
       </c>
@@ -20733,7 +21047,7 @@
         <v>2.1299999952316</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>374</v>
       </c>
@@ -20789,7 +21103,7 @@
         <v>2.1299999952316</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>376</v>
       </c>
@@ -20845,7 +21159,7 @@
         <v>2.1500000357628002</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>378</v>
       </c>
@@ -20901,7 +21215,7 @@
         <v>1.9799999892711999</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>379</v>
       </c>
@@ -20957,7 +21271,7 @@
         <v>2.2050000727176999</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>380</v>
       </c>
@@ -21013,7 +21327,7 @@
         <v>2.2050000727176999</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>383</v>
       </c>
@@ -21069,7 +21383,7 @@
         <v>2.2050000727176999</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>384</v>
       </c>
@@ -21125,7 +21439,7 @@
         <v>2.1119999885559002</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>387</v>
       </c>
@@ -21181,7 +21495,7 @@
         <v>2.1119999885559002</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>389</v>
       </c>
@@ -21237,7 +21551,7 @@
         <v>2.2650000452994998</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>390</v>
       </c>
@@ -21293,7 +21607,7 @@
         <v>2.2650000452994998</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>391</v>
       </c>
@@ -21349,7 +21663,7 @@
         <v>2.1259999275207999</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>392</v>
       </c>
@@ -21405,7 +21719,7 @@
         <v>2.2100000083446001</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>394</v>
       </c>
@@ -21461,7 +21775,7 @@
         <v>2.1259999275207999</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>395</v>
       </c>
@@ -21517,7 +21831,7 @@
         <v>2.1259999275207999</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>398</v>
       </c>
@@ -21573,7 +21887,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>399</v>
       </c>
@@ -21629,7 +21943,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>471</v>
       </c>
@@ -21685,7 +21999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>515</v>
       </c>
@@ -21741,7 +22055,7 @@
         <v>3.9879998564719998</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>552</v>
       </c>
@@ -21797,7 +22111,7 @@
         <v>1.0000000149012001</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>644</v>
       </c>
@@ -21853,7 +22167,7 @@
         <v>1.4749999344349001</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>645</v>
       </c>
@@ -21909,7 +22223,7 @@
         <v>1.0549999773501999</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>647</v>
       </c>
@@ -21965,7 +22279,7 @@
         <v>1.8000000715255999</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>675</v>
       </c>
@@ -22021,7 +22335,7 @@
         <v>9.9999997473787993E-4</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>690</v>
       </c>
@@ -22077,7 +22391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>691</v>
       </c>
@@ -22133,7 +22447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>692</v>
       </c>
@@ -22189,7 +22503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>958</v>
       </c>
@@ -22245,7 +22559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>961</v>
       </c>
@@ -22301,7 +22615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>1268</v>
       </c>
@@ -22357,7 +22671,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>1269</v>
       </c>
@@ -22413,7 +22727,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>1270</v>
       </c>
@@ -22469,7 +22783,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>1271</v>
       </c>
@@ -22525,7 +22839,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>1272</v>
       </c>
@@ -22581,7 +22895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>1273</v>
       </c>
@@ -22637,7 +22951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>1275</v>
       </c>
@@ -22693,7 +23007,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>1278</v>
       </c>
@@ -22749,7 +23063,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>1283</v>
       </c>
@@ -22805,7 +23119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>1285</v>
       </c>
@@ -22861,7 +23175,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>1286</v>
       </c>
@@ -22917,7 +23231,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>1287</v>
       </c>
@@ -22973,7 +23287,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>1290</v>
       </c>
@@ -23029,7 +23343,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1408</v>
       </c>
@@ -23091,7 +23405,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>1411</v>
       </c>
@@ -23153,7 +23467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>1412</v>
       </c>
@@ -23215,7 +23529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>1414</v>
       </c>
@@ -23277,7 +23591,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>1415</v>
       </c>
@@ -23339,7 +23653,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>1418</v>
       </c>
@@ -23401,7 +23715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>1422</v>
       </c>
@@ -23463,7 +23777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>1423</v>
       </c>
@@ -23525,7 +23839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>1424</v>
       </c>
@@ -23587,7 +23901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>1447</v>
       </c>
@@ -23643,7 +23957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1448</v>
       </c>
@@ -23699,7 +24013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>1449</v>
       </c>
@@ -23755,7 +24069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>1450</v>
       </c>
@@ -23811,7 +24125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>1451</v>
       </c>
@@ -23867,7 +24181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>1452</v>
       </c>
@@ -23923,7 +24237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>1453</v>
       </c>
@@ -23979,7 +24293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>1454</v>
       </c>
@@ -24035,7 +24349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>1455</v>
       </c>
@@ -24091,7 +24405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>1456</v>
       </c>
@@ -24147,7 +24461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>1457</v>
       </c>
@@ -24203,7 +24517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>1458</v>
       </c>
@@ -24259,7 +24573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>1459</v>
       </c>
@@ -24315,7 +24629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>1460</v>
       </c>
@@ -24371,7 +24685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>1461</v>
       </c>
@@ -24427,7 +24741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>1462</v>
       </c>
@@ -24483,7 +24797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>1467</v>
       </c>
@@ -24539,7 +24853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>1468</v>
       </c>
@@ -24595,7 +24909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>1469</v>
       </c>
@@ -24651,7 +24965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>1470</v>
       </c>
@@ -24707,7 +25021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>1471</v>
       </c>
@@ -24763,7 +25077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>1472</v>
       </c>
@@ -24819,7 +25133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>1481</v>
       </c>
@@ -24875,7 +25189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1482</v>
       </c>
@@ -24931,7 +25245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>1483</v>
       </c>
@@ -24987,7 +25301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>1484</v>
       </c>
@@ -25043,7 +25357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>1485</v>
       </c>
@@ -25099,7 +25413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>1486</v>
       </c>
@@ -25155,7 +25469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>1487</v>
       </c>
@@ -25211,7 +25525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1488</v>
       </c>
@@ -25267,7 +25581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>1493</v>
       </c>
@@ -25323,7 +25637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>1494</v>
       </c>
@@ -25379,7 +25693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>1521</v>
       </c>
@@ -25435,7 +25749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>1522</v>
       </c>
@@ -25491,7 +25805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>1523</v>
       </c>
@@ -25547,7 +25861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>1524</v>
       </c>
@@ -25603,7 +25917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>1525</v>
       </c>
@@ -25659,7 +25973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>1526</v>
       </c>
@@ -25715,7 +26029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>1527</v>
       </c>
@@ -25771,7 +26085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1528</v>
       </c>
@@ -25827,7 +26141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>1529</v>
       </c>
@@ -25883,7 +26197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>1530</v>
       </c>
@@ -25939,7 +26253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>1531</v>
       </c>
@@ -25995,7 +26309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>1532</v>
       </c>
@@ -26051,7 +26365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>1533</v>
       </c>
@@ -26107,7 +26421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>1534</v>
       </c>
@@ -26163,7 +26477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>1535</v>
       </c>
@@ -26219,7 +26533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1536</v>
       </c>
@@ -26275,7 +26589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1537</v>
       </c>
@@ -26331,7 +26645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>1538</v>
       </c>
@@ -26387,7 +26701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>1539</v>
       </c>
@@ -26443,7 +26757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>1540</v>
       </c>
@@ -26499,7 +26813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1541</v>
       </c>
@@ -26555,7 +26869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>1542</v>
       </c>
@@ -26611,7 +26925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>1543</v>
       </c>
@@ -26667,7 +26981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>1544</v>
       </c>
@@ -26723,7 +27037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1545</v>
       </c>
@@ -26779,7 +27093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>1546</v>
       </c>
@@ -26835,7 +27149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1547</v>
       </c>
@@ -26891,7 +27205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1548</v>
       </c>
@@ -26947,7 +27261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>1549</v>
       </c>
@@ -27003,7 +27317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>1550</v>
       </c>
@@ -27059,7 +27373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>1551</v>
       </c>
@@ -27115,7 +27429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>1552</v>
       </c>
@@ -27171,7 +27485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>1553</v>
       </c>
@@ -27227,7 +27541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>1554</v>
       </c>
@@ -27283,7 +27597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>1555</v>
       </c>
@@ -27339,7 +27653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1556</v>
       </c>
@@ -27395,7 +27709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>1557</v>
       </c>
@@ -27451,7 +27765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>1558</v>
       </c>
@@ -27507,7 +27821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>1569</v>
       </c>
@@ -27563,7 +27877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>1570</v>
       </c>
@@ -27619,7 +27933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1571</v>
       </c>
@@ -27675,7 +27989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>1603</v>
       </c>
@@ -27731,7 +28045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>1604</v>
       </c>
@@ -27787,7 +28101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>1605</v>
       </c>
@@ -27843,7 +28157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1606</v>
       </c>
@@ -27899,7 +28213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1607</v>
       </c>
@@ -27955,7 +28269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1608</v>
       </c>
@@ -28011,7 +28325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>1609</v>
       </c>
@@ -28067,7 +28381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1610</v>
       </c>
@@ -28123,7 +28437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>1611</v>
       </c>
@@ -28179,7 +28493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>1612</v>
       </c>
